--- a/src/analysis_examples/circadb/results_lomb/cosinor_10389581_ypel2_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10389581_ypel2_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.3691636673184471, 0.46984845986602686]</t>
+          <t>[0.36841728859769846, 0.4705948385867755]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.461498003318411e-14</v>
+        <v>8.615330671091215e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.461498003318411e-14</v>
+        <v>8.615330671091215e-14</v>
       </c>
       <c r="O2" t="n">
         <v>-0.6666843268879239</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4840433111409885, 0.5362142151802465]</t>
+          <t>[0.484032364326189, 0.536225161995046]</t>
         </is>
       </c>
       <c r="U2" t="n">
